--- a/contents/office2016/access/assets/congress.xlsx
+++ b/contents/office2016/access/assets/congress.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seiya\Documents\GitHub\infolit\contents\office2016\access\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36" yWindow="1380" windowWidth="15972" windowHeight="7932"/>
+    <workbookView xWindow="-30" yWindow="1380" windowWidth="15975" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1795,23 +1795,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1847,23 +1830,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2043,25 +2009,25 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2119,7 +2085,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="5">
-        <v>36892</v>
+        <v>41275</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -2131,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2154,7 +2120,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="5">
-        <v>36892</v>
+        <v>41275</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -2166,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2189,7 +2155,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="5">
-        <v>36892</v>
+        <v>41275</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -2201,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2224,7 +2190,7 @@
         <v>35</v>
       </c>
       <c r="H5" s="5">
-        <v>36927</v>
+        <v>41310</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -2236,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2259,7 +2225,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="5">
-        <v>37350</v>
+        <v>41368</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -2271,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2294,7 +2260,7 @@
         <v>48</v>
       </c>
       <c r="H7" s="5">
-        <v>37489</v>
+        <v>41507</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -2306,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2329,7 +2295,7 @@
         <v>55</v>
       </c>
       <c r="H8" s="5">
-        <v>37612</v>
+        <v>41630</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -2341,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2364,7 +2330,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="5">
-        <v>37622</v>
+        <v>41640</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -2376,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2399,7 +2365,7 @@
         <v>69</v>
       </c>
       <c r="H10" s="5">
-        <v>37712</v>
+        <v>41730</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -2411,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2434,7 +2400,7 @@
         <v>76</v>
       </c>
       <c r="H11" s="5">
-        <v>38011</v>
+        <v>42029</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -2446,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2469,7 +2435,7 @@
         <v>82</v>
       </c>
       <c r="H12" s="5">
-        <v>38011</v>
+        <v>42029</v>
       </c>
       <c r="I12" s="3">
         <v>2</v>
@@ -2481,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2504,7 +2470,7 @@
         <v>89</v>
       </c>
       <c r="H13" s="5">
-        <v>38049</v>
+        <v>42066</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
@@ -2516,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2539,7 +2505,7 @@
         <v>95</v>
       </c>
       <c r="H14" s="5">
-        <v>38511</v>
+        <v>42529</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -2551,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2574,7 +2540,7 @@
         <v>101</v>
       </c>
       <c r="H15" s="5">
-        <v>38523</v>
+        <v>42541</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -2586,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2609,7 +2575,7 @@
         <v>107</v>
       </c>
       <c r="H16" s="8">
-        <v>38687</v>
+        <v>42705</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
@@ -2621,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2644,7 +2610,7 @@
         <v>113</v>
       </c>
       <c r="H17" s="5">
-        <v>38905</v>
+        <v>42923</v>
       </c>
       <c r="I17" s="3">
         <v>2</v>
@@ -2656,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2679,7 +2645,7 @@
         <v>119</v>
       </c>
       <c r="H18" s="5">
-        <v>38960</v>
+        <v>42978</v>
       </c>
       <c r="I18" s="3">
         <v>3</v>
@@ -2691,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2714,7 +2680,7 @@
         <v>125</v>
       </c>
       <c r="H19" s="5">
-        <v>39359</v>
+        <v>43012</v>
       </c>
       <c r="I19" s="3">
         <v>2</v>
@@ -2726,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2749,7 +2715,7 @@
         <v>131</v>
       </c>
       <c r="H20" s="5">
-        <v>39757</v>
+        <v>43044</v>
       </c>
       <c r="I20" s="3">
         <v>3</v>
@@ -2761,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2784,7 +2750,7 @@
         <v>138</v>
       </c>
       <c r="H21" s="8">
-        <v>39945</v>
+        <v>43232</v>
       </c>
       <c r="I21" s="7">
         <v>2</v>
@@ -2799,5 +2765,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>